--- a/smartclassonlinesel/FlipLearn/TestData/LoginData/parents_login_Data.xlsx
+++ b/smartclassonlinesel/FlipLearn/TestData/LoginData/parents_login_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>User_Role_ED</t>
   </si>
@@ -25,10 +25,13 @@
     <t>Password_Ed</t>
   </si>
   <si>
-    <t>ets_devendrakumar</t>
-  </si>
-  <si>
     <t>Parent</t>
+  </si>
+  <si>
+    <t>khushwant_995610</t>
+  </si>
+  <si>
+    <t>qa12345</t>
   </si>
 </sst>
 </file>
@@ -381,12 +384,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -404,13 +407,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
